--- a/Pr_Approval_Claims_Merged.xlsx
+++ b/Pr_Approval_Claims_Merged.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN9"/>
+  <dimension ref="A1:AN26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -746,88 +746,82 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>KOL</t>
+          <t>AMT</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>KOLHAPUR</t>
+          <t>AMRAVATI</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>_KOLHAPUR_WS_Pre_aprvl_req_rprt_xl.xls</t>
+          <t>_AMRAVATI_Pre_aprvl_req_rprt_xl.xls</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PAC26R000036</t>
+          <t>PAC26B000009</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10-DEC-25</t>
+          <t>16-DEC-25</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Pre-App-Non STD</t>
+          <t>Goodwill</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Waiting for CCM</t>
+          <t>Waiting for RCCM/ME RCCM/CBM cc</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>RO26R006465</t>
+          <t>RO26B006657</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>MH09GU1800</t>
+          <t>MH27DU9629</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>R2E31078</t>
+          <t>S6J44173</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>19063</v>
+        <v>3441</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>25-NOV-25</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>nonPDI</t>
-        </is>
-      </c>
+          <t>01-DEC-25</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Technical</t>
+          <t>Commercial</t>
         </is>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
+      <c r="R3" t="inlineStr"/>
       <c r="S3" t="n">
-        <v>5092</v>
+        <v>13853</v>
       </c>
       <c r="T3" t="n">
-        <v>5091.7</v>
+        <v>13597.78</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>13597.77</v>
       </c>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
@@ -836,7 +830,7 @@
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>SU010471</t>
+          <t>SU010351</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr"/>
@@ -856,27 +850,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>WAG</t>
+          <t>AMT</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WAGHOLI</t>
+          <t>AMRAVATI</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>_WAGHOLI_Pre_aprvl_req_rprt_xl.xls</t>
+          <t>_AMRAVATI_Pre_aprvl_req_rprt_xl.xls</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PAC26G000256</t>
+          <t>PAC26B000010</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>02-DEC-25</t>
+          <t>19-DEC-25</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -893,25 +887,25 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>RO26G022857</t>
+          <t>RO26B006303</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>MH12UN8515</t>
+          <t>PB06BD2036</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>N6H94936</t>
+          <t>N2K17926</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>53715</v>
+        <v>23467</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>10-NOV-25</t>
+          <t>19-NOV-25</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
@@ -925,13 +919,13 @@
       </c>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="n">
-        <v>13853</v>
+        <v>12600</v>
       </c>
       <c r="T4" t="n">
-        <v>13852.68</v>
+        <v>12600.01</v>
       </c>
       <c r="U4" t="n">
-        <v>13852.68</v>
+        <v>12600.01</v>
       </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
@@ -940,7 +934,7 @@
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>SU010381</t>
+          <t>SU010351</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr"/>
@@ -960,65 +954,77 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>WAG</t>
+          <t>AMT</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WAGHOLI</t>
+          <t>AMRAVATI</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>_WAGHOLI_Pre_aprvl_req_rprt_xl.xls</t>
+          <t>_AMRAVATI_Pre_aprvl_req_rprt_xl.xls</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PAC26G000265</t>
+          <t>PAC26B000011</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>10-DEC-25</t>
+          <t>25-DEC-25</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Goodwill</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+          <t>FOC Parts</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>F26BSU010351202612000002</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>25-DEC-25</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Waiting for CCM</t>
+          <t>Order Acknowledged</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>RO26G023851</t>
+          <t>RO26B007302</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>MH12WE2513</t>
+          <t>CG07CZ9492</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>P6L19565</t>
+          <t>S2G49841</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>42626</v>
+        <v>3209</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>19-NOV-25</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr"/>
+          <t>24-DEC-25</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>YC</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Technical</t>
@@ -1031,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>5789</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>5788.96</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1046,19 +1052,33 @@
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>SU010381</t>
+          <t>SU010351</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>SPO26B003908</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>25-DEC-25</t>
+        </is>
+      </c>
       <c r="AH5" t="inlineStr"/>
       <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="inlineStr"/>
+      <c r="AJ5" t="n">
+        <v>930112611</v>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>25-DEC-25</t>
+        </is>
+      </c>
       <c r="AL5" t="inlineStr"/>
       <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="inlineStr"/>
@@ -1066,22 +1086,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>WAG</t>
+          <t>KOL</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>WAGHOLI</t>
+          <t>KOLHAPUR</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>_WAGHOLI_Pre_aprvl_req_rprt_xl.xls</t>
+          <t>_KOLHAPUR_WS_Pre_aprvl_req_rprt_xl.xls</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>PAC26G000266</t>
+          <t>PAC26R000036</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1091,7 +1111,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Goodwill</t>
+          <t>Pre-App-Non STD</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -1103,28 +1123,32 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>RO26G025366</t>
+          <t>RO26R006465</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>25BH4232N</t>
+          <t>MH09GU1800</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>S2B93953</t>
+          <t>R2E31078</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>2264</v>
+        <v>19063</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>02-DEC-25</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr"/>
+          <t>25-NOV-25</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>nonPDI</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Technical</t>
@@ -1137,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>3444</v>
+        <v>5092</v>
       </c>
       <c r="T6" t="n">
-        <v>3443.68</v>
+        <v>5091.7</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1152,7 +1176,7 @@
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>SU010381</t>
+          <t>SU010471</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr"/>
@@ -1172,22 +1196,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WAG</t>
+          <t>HO</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>WAGHOLI</t>
+          <t>NAGPUR-KAMPTHEEROAD</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>_WAGHOLI_Pre_aprvl_req_rprt_xl.xls</t>
+          <t>_NAGPUR_KAMPTHEEROAD_Pre_aprvl_req_rprt_xl.xls</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PAC26G000267</t>
+          <t>PAC26A000041</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1200,40 +1224,48 @@
           <t>Goodwill</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>R26ABU010301202612000036</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>20-DEC-25</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Waiting for CCM</t>
+          <t>Order Acknowledged</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>RO26G024084</t>
+          <t>RO26A017045</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>MH12YH2513</t>
+          <t>MH32AX5959</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>S6F84159</t>
+          <t>S6G89828</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>10235</v>
+        <v>3374</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>21-NOV-25</t>
+          <t>10-DEC-25</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Technical</t>
+          <t>Commercial</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1243,13 +1275,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>4634</v>
+        <v>1315</v>
       </c>
       <c r="T7" t="n">
-        <v>4634.17</v>
+        <v>1314.93</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1314.93</v>
       </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
@@ -1258,7 +1290,7 @@
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>BU010381</t>
+          <t>BU010301</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr"/>
@@ -1278,22 +1310,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>WAG</t>
+          <t>HO</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>WAGHOLI</t>
+          <t>NAGPUR-KAMPTHEEROAD</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>_WAGHOLI_Pre_aprvl_req_rprt_xl.xls</t>
+          <t>_NAGPUR_KAMPTHEEROAD_Pre_aprvl_req_rprt_xl.xls</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PAC26G000268</t>
+          <t>PAC26A000042</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1306,40 +1338,48 @@
           <t>Goodwill</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>R26ABU010301202612000037</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>20-DEC-25</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Waiting for CCM</t>
+          <t>Order Acknowledged</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>RO26G020685</t>
+          <t>RO26A016979</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>MH12YN2202</t>
+          <t>MH29CJ5553</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>S6G87345</t>
+          <t>S6H94880</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>2020</v>
+        <v>2653</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>26-OCT-25</t>
+          <t>09-DEC-25</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Technical</t>
+          <t>Commercial</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1349,13 +1389,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>5237</v>
+        <v>1315</v>
       </c>
       <c r="T8" t="n">
-        <v>5237.18</v>
+        <v>1314.93</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1314.93</v>
       </c>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
@@ -1364,7 +1404,7 @@
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>BU010381</t>
+          <t>BU010301</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr"/>
@@ -1384,27 +1424,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>WAG</t>
+          <t>HO</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>WAGHOLI</t>
+          <t>NAGPUR-KAMPTHEEROAD</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>_WAGHOLI_Pre_aprvl_req_rprt_xl.xls</t>
+          <t>_NAGPUR_KAMPTHEEROAD_Pre_aprvl_req_rprt_xl.xls</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PAC26G000269</t>
+          <t>PAC26A000043</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>13-DEC-25</t>
+          <t>19-DEC-25</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1412,40 +1452,48 @@
           <t>Goodwill</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>R26ASU010301202612000038</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>20-DEC-25</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Waiting for CCM</t>
+          <t>Order Acknowledged</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>RO26G023884</t>
+          <t>RO26A016067</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>MH12XQ2345</t>
+          <t>MH31GA75639</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>R6M45908</t>
+          <t>R2K75639</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>33371</v>
+        <v>135</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>19-NOV-25</t>
+          <t>25-NOV-25</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Technical</t>
+          <t>Commercial</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1455,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>8039</v>
+        <v>8427</v>
       </c>
       <c r="T9" t="n">
-        <v>8038.99</v>
+        <v>8427.01</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>8427.01</v>
       </c>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
@@ -1470,7 +1518,7 @@
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>SU010381</t>
+          <t>SU010301</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr"/>
@@ -1486,6 +1534,1806 @@
       <c r="AL9" t="inlineStr"/>
       <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>WAG</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>WAGHOLI</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>_WAGHOLI_Pre_aprvl_req_rprt_xl.xls</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>PAC26G000256</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>02-DEC-25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Goodwill</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Waiting for ZH/RBH</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>RO26G022857</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>MH12UN8515</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>N6H94936</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>53715</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>10-NOV-25</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Technical</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="n">
+        <v>13853</v>
+      </c>
+      <c r="T10" t="n">
+        <v>13852.68</v>
+      </c>
+      <c r="U10" t="n">
+        <v>13852.68</v>
+      </c>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>SU010381</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>WAG</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>WAGHOLI</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>_WAGHOLI_Pre_aprvl_req_rprt_xl.xls</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>PAC26G000265</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>10-DEC-25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Goodwill</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Waiting for CCM</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>RO26G023851</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>MH12WE2513</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>P6L19565</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>42626</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>19-NOV-25</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Technical</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5789</v>
+      </c>
+      <c r="T11" t="n">
+        <v>5788.96</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>SU010381</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>WAG</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>WAGHOLI</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>_WAGHOLI_Pre_aprvl_req_rprt_xl.xls</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>PAC26G000266</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>10-DEC-25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Goodwill</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Waiting for CCM</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>RO26G025366</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>25BH4232N</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>S2B93953</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>2264</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>02-DEC-25</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Technical</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3444</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3443.68</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>SU010381</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>WAG</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>WAGHOLI</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>_WAGHOLI_Pre_aprvl_req_rprt_xl.xls</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>PAC26G000267</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>11-DEC-25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Goodwill</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Waiting for CCM</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>RO26G024084</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>MH12YH2513</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>S6F84159</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>10235</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>21-NOV-25</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Technical</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4634</v>
+      </c>
+      <c r="T13" t="n">
+        <v>4634.17</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>BU010381</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>WAG</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>WAGHOLI</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>_WAGHOLI_Pre_aprvl_req_rprt_xl.xls</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>PAC26G000268</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>11-DEC-25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Goodwill</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Waiting for CCM</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>RO26G020685</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>MH12YN2202</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>S6G87345</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>2020</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>26-OCT-25</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Technical</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5237</v>
+      </c>
+      <c r="T14" t="n">
+        <v>5237.18</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>BU010381</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>WAG</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>WAGHOLI</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>_WAGHOLI_Pre_aprvl_req_rprt_xl.xls</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>PAC26G000269</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>13-DEC-25</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Goodwill</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Waiting for CCM</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>RO26G023884</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>MH12XQ2345</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>R6M45908</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>33371</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>19-NOV-25</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Technical</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>8039</v>
+      </c>
+      <c r="T15" t="n">
+        <v>8038.99</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>SU010381</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>WAG</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>WAGHOLI</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>_WAGHOLI_Pre_aprvl_req_rprt_xl.xls</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>PAC26G000272</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>15-DEC-25</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Goodwill</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Waiting for CCM</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>RO26G025896</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>MH12UJ9961</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>N6E18497</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>81716</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>06-DEC-25</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Technical</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5317</v>
+      </c>
+      <c r="T16" t="n">
+        <v>5317.17</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>SU010381</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>WAG</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>WAGHOLI</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>_WAGHOLI_Pre_aprvl_req_rprt_xl.xls</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>PAC26G000273</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>15-DEC-25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Goodwill</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Waiting for CCM</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>RO26G024785</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>MH12XT1718</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>S6C86264</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>11260</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>27-NOV-25</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Technical</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1553</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1552.64</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>BU010381</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="inlineStr"/>
+      <c r="AH17" t="inlineStr"/>
+      <c r="AI17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="inlineStr"/>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>WAG</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>WAGHOLI</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>_WAGHOLI_Pre_aprvl_req_rprt_xl.xls</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>PAC26G000274</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>16-DEC-25</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Goodwill</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Waiting for CCM</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>RO26G024359</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>MH12UJ3688</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>N6E19961</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>31652</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>24-NOV-25</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Technical</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5324</v>
+      </c>
+      <c r="T18" t="n">
+        <v>5324.13</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>SU010381</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="inlineStr"/>
+      <c r="AI18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="inlineStr"/>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>WAG</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>WAGHOLI</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>_WAGHOLI_Pre_aprvl_req_rprt_xl.xls</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>PAC26G000275</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>17-DEC-25</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Goodwill</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Waiting for CCM</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>RO26G024685</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>MH12TS1416</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>M2K39993</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>69938</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>26-NOV-25</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Technical</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3081</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3081.1</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>SU010381</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="inlineStr"/>
+      <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="inlineStr"/>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>WAG</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>WAGHOLI</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>_WAGHOLI_Pre_aprvl_req_rprt_xl.xls</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>PAC26G000276</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>17-DEC-25</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Goodwill</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Waiting for CCM</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>RO26G015546</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>MH12XQ0700</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>R2K14361</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>9074</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>10-SEP-25</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Technical</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1581</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1580.57</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>SU010381</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="inlineStr"/>
+      <c r="AH20" t="inlineStr"/>
+      <c r="AI20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="inlineStr"/>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>WAG</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>WAGHOLI</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>_WAGHOLI_Pre_aprvl_req_rprt_xl.xls</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>PAC26G000277</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>17-DEC-25</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Goodwill</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Waiting for CCM</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>RO26G009522</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>MH12UM1117</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>N2H40064</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>97587</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>08-JUL-25</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Technical</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>27572</v>
+      </c>
+      <c r="T21" t="n">
+        <v>8271.690000000001</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>SU010381</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="inlineStr"/>
+      <c r="AH21" t="inlineStr"/>
+      <c r="AI21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="inlineStr"/>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>WAG</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>WAGHOLI</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>_WAGHOLI_Pre_aprvl_req_rprt_xl.xls</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>PAC26G000279</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>17-DEC-25</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Goodwill</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Waiting for CCM</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>RO26G022822</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>MH12WE1754</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>P2L56621</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>35741</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>10-NOV-25</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Technical</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>12417</v>
+      </c>
+      <c r="T22" t="n">
+        <v>9933.65</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>SU010381</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="inlineStr"/>
+      <c r="AH22" t="inlineStr"/>
+      <c r="AI22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="inlineStr"/>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>WAG</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>WAGHOLI</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>_WAGHOLI_Pre_aprvl_req_rprt_xl.xls</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>PAC26G000280</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>22-DEC-25</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Goodwill</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Waiting for CCM</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>RO26G026858</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>MH12XT8410</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>S6B87454</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>18750</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>15-DEC-25</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Technical</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>19671</v>
+      </c>
+      <c r="T23" t="n">
+        <v>19671.3</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>BU010381</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="inlineStr"/>
+      <c r="AH23" t="inlineStr"/>
+      <c r="AI23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="inlineStr"/>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>WAG</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>WAGHOLI</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>_WAGHOLI_Pre_aprvl_req_rprt_xl.xls</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>PAC26G000281</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>25-DEC-25</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Goodwill</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Waiting for CCM</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>RO26G027367</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>MH12YQ1508</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>R6L18277</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>4509</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>19-DEC-25</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Technical</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>21414</v>
+      </c>
+      <c r="T24" t="n">
+        <v>21414.34</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>U010381</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="inlineStr"/>
+      <c r="AH24" t="inlineStr"/>
+      <c r="AI24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="inlineStr"/>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>WAG</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>WAGHOLI</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>_WAGHOLI_Pre_aprvl_req_rprt_xl.xls</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>PAC26G000283</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>27-DEC-25</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Goodwill</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Waiting for CCM</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>RO26G027586</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>MH12VB3666</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>P2B23390</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>42150</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>20-DEC-25</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Technical</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>7252</v>
+      </c>
+      <c r="T25" t="n">
+        <v>7251.58</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>SU010381</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="inlineStr"/>
+      <c r="AH25" t="inlineStr"/>
+      <c r="AI25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="inlineStr"/>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>YAT</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>YAVATMAL</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>_YAVATMAL_Pre_aprvl_req_rprt_xl.xls</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>PAC26D000018</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>26-DEC-25</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Goodwill</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Waiting for CCM</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>RO26D004754</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>MH29CJ6151</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>S6J65037</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>2530</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>15-DEC-25</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Commercial</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1885</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1885.01</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>SU010361</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="inlineStr"/>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="inlineStr"/>
+      <c r="AH26" t="inlineStr"/>
+      <c r="AI26" t="inlineStr"/>
+      <c r="AJ26" t="inlineStr"/>
+      <c r="AK26" t="inlineStr"/>
+      <c r="AL26" t="inlineStr"/>
+      <c r="AM26" t="inlineStr"/>
+      <c r="AN26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1525,7 +3373,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>26197.78</v>
       </c>
     </row>
     <row r="3">
@@ -1565,7 +3413,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>11056.87</v>
       </c>
     </row>
     <row r="7">
@@ -1619,7 +3467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1656,7 +3504,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1677,31 +3525,46 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>WAGHOLI</t>
+          <t>NAGPUR-KAMPTHEEROAD</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>_WAGHOLI_Pre_aprvl_req_rprt_xl.xls</t>
+          <t>_NAGPUR_KAMPTHEEROAD_Pre_aprvl_req_rprt_xl.xls</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>WAGHOLI</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>_WAGHOLI_Pre_aprvl_req_rprt_xl.xls</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>YAVATMAL</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>_YAVATMAL_Pre_aprvl_req_rprt_xl.xls</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>3</v>
+      <c r="C6" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
